--- a/Greenfield Model copy/OREIA3_2017/data/investment.xlsx
+++ b/Greenfield Model copy/OREIA3_2017/data/investment.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/axel/Desktop/Edinburgh MMath Degree Stuff/MMath Diss/Greenfield Model copy/OREIA3_2017/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/axel/Desktop/Edinburgh MMath Degree Stuff/MMath Diss/Year5-MMath-Diss/Greenfield Model copy/OREIA3_2017/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19EAFA54-0685-9E46-B2D4-5BCA08E5FBB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB5FC4AB-E8C4-1945-B883-DD2AFD77E1D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1040" yWindow="740" windowWidth="28360" windowHeight="18380" tabRatio="500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1040" yWindow="740" windowWidth="15060" windowHeight="10580" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="91">
   <si>
     <t>table_name</t>
   </si>
@@ -305,22 +305,13 @@
   </si>
   <si>
     <t>M11</t>
-  </si>
-  <si>
-    <t>M12</t>
-  </si>
-  <si>
-    <t>M13</t>
-  </si>
-  <si>
-    <t>M14</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -351,6 +342,12 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -372,7 +369,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -406,6 +403,12 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -1054,10 +1057,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1168,30 +1171,6 @@
         <v>90</v>
       </c>
       <c r="B13" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>91</v>
-      </c>
-      <c r="B14" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>92</v>
-      </c>
-      <c r="B15" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>93</v>
-      </c>
-      <c r="B16" s="2">
         <v>0</v>
       </c>
     </row>
@@ -1384,8 +1363,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:D69"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1541,13 +1520,13 @@
         <v>58</v>
       </c>
       <c r="B11" s="8">
-        <v>3280000</v>
+        <v>100000</v>
       </c>
       <c r="C11" s="2">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="D11" s="2">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -1555,71 +1534,32 @@
         <v>59</v>
       </c>
       <c r="B12" s="8">
+        <v>3280000</v>
+      </c>
+      <c r="C12" s="2">
+        <v>12000</v>
+      </c>
+      <c r="D12" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="B13" s="8">
         <v>100000</v>
       </c>
-      <c r="C12" s="2">
+      <c r="C13" s="14">
         <v>7000</v>
       </c>
-      <c r="D12" s="2">
+      <c r="D13" s="14">
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="B13" s="8">
-        <v>2000000</v>
-      </c>
-      <c r="C13" s="4">
-        <v>1</v>
-      </c>
-      <c r="D13" s="4">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="B14" s="8">
-        <v>100000</v>
-      </c>
-      <c r="C14" s="2">
-        <v>7000</v>
-      </c>
-      <c r="D14" s="2">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="B15" s="8">
-        <v>100000</v>
-      </c>
-      <c r="C15" s="2">
-        <v>7000</v>
-      </c>
-      <c r="D15" s="2">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="B16" s="8">
-        <v>100000</v>
-      </c>
-      <c r="C16" s="2">
-        <v>7000</v>
-      </c>
-      <c r="D16" s="2">
-        <v>25</v>
-      </c>
-    </row>
+    <row r="14" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="15" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="16" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="17" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="18" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="19" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/Greenfield Model copy/OREIA3_2017/data/investment.xlsx
+++ b/Greenfield Model copy/OREIA3_2017/data/investment.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/axel/Desktop/Edinburgh MMath Degree Stuff/MMath Diss/Year5-MMath-Diss/Greenfield Model copy/OREIA3_2017/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB5FC4AB-E8C4-1945-B883-DD2AFD77E1D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC798E20-5F78-634B-8790-3810E54123F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1040" yWindow="740" windowWidth="15060" windowHeight="10580" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1080" yWindow="740" windowWidth="28320" windowHeight="18380" tabRatio="500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
     <sheet name="structure" sheetId="7" r:id="rId7"/>
     <sheet name="general" sheetId="8" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="0" iterateDelta="1E-4"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="94">
   <si>
     <t>table_name</t>
   </si>
@@ -271,9 +271,6 @@
     <t>ParentsInv</t>
   </si>
   <si>
-    <t>GBP/MW(h)</t>
-  </si>
-  <si>
     <t xml:space="preserve">(mioGBP/GWyr) </t>
   </si>
   <si>
@@ -305,6 +302,18 @@
   </si>
   <si>
     <t>M11</t>
+  </si>
+  <si>
+    <t>M12</t>
+  </si>
+  <si>
+    <t>M13</t>
+  </si>
+  <si>
+    <t>M14</t>
+  </si>
+  <si>
+    <t>GBP/MW(h)(/*C)</t>
   </si>
 </sst>
 </file>
@@ -1057,10 +1066,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:B16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1168,9 +1177,33 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
+        <v>89</v>
+      </c>
+      <c r="B13" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
         <v>90</v>
       </c>
-      <c r="B13" s="2">
+      <c r="B14" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>91</v>
+      </c>
+      <c r="B15" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>92</v>
+      </c>
+      <c r="B16" s="2">
         <v>0</v>
       </c>
     </row>
@@ -1363,15 +1396,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:D69"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView tabSelected="1" zoomScale="234" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10.1640625" style="5" customWidth="1"/>
-    <col min="2" max="2" width="10.6640625" style="6" customWidth="1"/>
-    <col min="3" max="4" width="13" style="4" customWidth="1"/>
+    <col min="2" max="2" width="15.5" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13" style="4" customWidth="1"/>
     <col min="5" max="1025" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1394,13 +1428,13 @@
         <v>2</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="D2" s="3" t="s">
         <v>80</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -1545,7 +1579,7 @@
     </row>
     <row r="13" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="13" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B13" s="8">
         <v>100000</v>
@@ -1557,9 +1591,48 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="15" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="16" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="14" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="B14" s="6">
+        <v>66137</v>
+      </c>
+      <c r="C14" s="4">
+        <v>576</v>
+      </c>
+      <c r="D14" s="4">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="B15" s="8">
+        <v>100000</v>
+      </c>
+      <c r="C15" s="14">
+        <v>7000</v>
+      </c>
+      <c r="D15" s="4">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="B16" s="8">
+        <v>100000</v>
+      </c>
+      <c r="C16" s="14">
+        <v>7000</v>
+      </c>
+      <c r="D16" s="4">
+        <v>25</v>
+      </c>
+    </row>
     <row r="17" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="18" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="19" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1652,11 +1725,11 @@
     </row>
     <row r="2" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
@@ -1666,7 +1739,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C3" s="2">
         <v>1</v>
@@ -1706,10 +1779,10 @@
         <v>28</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>85</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>86</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>37</v>
@@ -1732,7 +1805,7 @@
     </row>
     <row r="3" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C3" s="2">
         <v>1</v>
@@ -1791,12 +1864,12 @@
         <v>2</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B3" s="12">
         <v>8760</v>

--- a/Greenfield Model copy/OREIA3_2017/data/investment.xlsx
+++ b/Greenfield Model copy/OREIA3_2017/data/investment.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/axel/Desktop/Edinburgh MMath Degree Stuff/MMath Diss/Year5-MMath-Diss/Greenfield Model copy/OREIA3_2017/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC798E20-5F78-634B-8790-3810E54123F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2665CA0B-5048-C643-9EAC-CC8A5F94B78F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="740" windowWidth="28320" windowHeight="18380" tabRatio="500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13720" yWindow="740" windowWidth="15680" windowHeight="11800" tabRatio="500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="1" r:id="rId1"/>
@@ -1396,8 +1396,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:D69"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="234" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="125" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1582,10 +1582,10 @@
         <v>89</v>
       </c>
       <c r="B13" s="8">
-        <v>100000</v>
+        <v>10000</v>
       </c>
       <c r="C13" s="14">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="D13" s="14">
         <v>25</v>
@@ -1595,11 +1595,11 @@
       <c r="A14" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="B14" s="6">
-        <v>66137</v>
+      <c r="B14" s="8">
+        <v>15000</v>
       </c>
       <c r="C14" s="4">
-        <v>576</v>
+        <v>0</v>
       </c>
       <c r="D14" s="4">
         <v>25</v>
@@ -1610,10 +1610,10 @@
         <v>91</v>
       </c>
       <c r="B15" s="8">
-        <v>100000</v>
+        <v>10000</v>
       </c>
       <c r="C15" s="14">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="D15" s="4">
         <v>25</v>
@@ -1624,10 +1624,10 @@
         <v>92</v>
       </c>
       <c r="B16" s="8">
-        <v>100000</v>
+        <v>10000</v>
       </c>
       <c r="C16" s="14">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="D16" s="4">
         <v>25</v>
